--- a/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -299,7 +299,7 @@
     <t>Statut de l'entrée</t>
   </si>
   <si>
-    <t>fr-lm-probleme.dateProbleme</t>
+    <t>fr-lm-probleme.dateDebutProbleme</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Date de début du problème</t>
+  </si>
+  <si>
+    <t>fr-lm-probleme.dateFinProbleme</t>
+  </si>
+  <si>
+    <t>Date de fin du problème</t>
   </si>
   <si>
     <t>fr-lm-probleme.statutProbleme</t>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1584,13 +1590,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1658,10 +1664,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1684,13 +1690,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1741,7 +1747,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1758,10 +1764,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1784,13 +1790,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1841,7 +1847,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -1858,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1884,13 +1890,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1941,7 +1947,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -1958,10 +1964,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1972,7 +1978,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -1984,13 +1990,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2041,13 +2047,13 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2058,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2069,10 +2075,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2084,13 +2090,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2141,13 +2147,13 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2158,10 +2164,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2184,13 +2190,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2241,7 +2247,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2258,10 +2264,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2269,7 +2275,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -2284,7 +2290,7 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>116</v>
@@ -2341,10 +2347,10 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
@@ -2369,10 +2375,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2384,13 +2390,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2444,10 +2450,10 @@
         <v>117</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2458,10 +2464,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2469,10 +2475,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2484,13 +2490,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2541,18 +2547,118 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-probleme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
